--- a/数据整理/stocks/A股/深证主板/002006-精功科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002006-精功科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,825 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6680</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002006-精功科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002006-精功科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.5</v>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1713,13 +1756,993 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015768</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002006-精功科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002006-精功科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011637</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发沪港深价值成长混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9663</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010452</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发瑞福精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8558</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
@@ -580,264 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013513</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长安先进制造混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1732</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010453</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发瑞福精选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1555</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005341</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长安裕泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0970</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005342</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长安裕泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0703</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>013514</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长安先进制造混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.69</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0334</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011638</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发沪港深价值成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>740001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长安宏观策略混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
+      <c r="D4" t="n">
+        <v>2.38</v>
       </c>
     </row>
   </sheetData>
@@ -846,6 +532,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015768</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,13 +2353,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1718,36 +2410,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012473</t>
+          <t>011637</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>20.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7117</t>
+          <t>0.9663</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1756,36 +2448,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010371</t>
+          <t>010452</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成成长进取混合A</t>
+          <t>广发瑞福精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>19.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.01</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4681</t>
+          <t>0.8558</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1794,36 +2486,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012262</t>
+          <t>013513</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝可持续发展混合A</t>
+          <t>长安先进制造混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.65</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.17</t>
+          <t>88.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3537</t>
+          <t>0.1732</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1832,36 +2524,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519979</t>
+          <t>010453</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信内需成长混合A</t>
+          <t>广发瑞福精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2381</t>
+          <t>0.1555</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1870,36 +2562,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013513</t>
+          <t>005341</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长安先进制造混合A</t>
+          <t>长安裕泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1488</t>
+          <t>0.0970</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1908,36 +2600,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010372</t>
+          <t>005342</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成成长进取混合C</t>
+          <t>长安裕泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.01</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1429</t>
+          <t>0.0703</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1946,36 +2638,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012263</t>
+          <t>013514</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝可持续发展混合C</t>
+          <t>长安先进制造混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.17</t>
+          <t>88.69</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1331</t>
+          <t>0.0334</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1984,36 +2676,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014271</t>
+          <t>011638</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成北交所两年定开混合A</t>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>62.33</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1321</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2022,728 +2714,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519625</t>
+          <t>740001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银河君盛灵活配置混合A</t>
+          <t>长安宏观策略混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30.10</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519626</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银河君盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>30.10</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0533</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519629</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河睿利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>41.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008422</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中融研发创新混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0437</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519630</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河睿利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>41.75</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>012474</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005459</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>44.13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0350</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005460</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>44.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>014272</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成北交所两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>62.33</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>013514</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长安先进制造混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008423</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中融研发创新混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>740001</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长安宏观策略混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.88</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519935</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长信创新驱动股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>015768</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>长信内需成长混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006397</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>长信内需成长混合E</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.38</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002006-精功科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002006-精功科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>2.77</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>3.5</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.38</v>
       </c>
     </row>
@@ -532,6 +549,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5984</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河行业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2748</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013665</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011629</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河核心优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013666</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004276</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016198</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015670</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河行业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009028</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004277</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1537,7 +2826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2353,7 +3642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002006-精功科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002006-精功科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>4.39</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>2.77</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>3.5</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.38</v>
       </c>
     </row>
@@ -549,6 +566,1768 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7358</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5654</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4317</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012688</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长安成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3989</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2750</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011629</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013665</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012523</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012689</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长安成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013666</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015665</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016198</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015670</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河行业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>016981</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>017290</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1820,7 +3599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2826,7 +4605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3642,7 +5421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
